--- a/va_facility_data_2025-02-20/Brooklyn VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Brooklyn%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Brooklyn VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Brooklyn%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7ad68c7a9fd545c1931c5b2ff3b035a8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R68f37f01b0794e43b2709daee69b2cfa"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0c1dad11e5334683a73f9f4432c2e87c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd34f0892bd074d70b48755d1942ecd09"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R89e589e85f9f41518fa17b009f99dc7f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R615a0582ba4c4d68ac3d1dbc1e94c141"/>
   </x:sheets>
 </x:workbook>
 </file>
